--- a/www/ig/fhir/mesures/3.0.0/StructureDefinition-mes-fr-observation-bodyheight.xlsx
+++ b/www/ig/fhir/mesures/3.0.0/StructureDefinition-mes-fr-observation-bodyheight.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4050" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4068" uniqueCount="679">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T16:32:25+01:00</t>
+    <t>2023-03-23T15:01:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -322,6 +322,13 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Observation.meta.id</t>
   </si>
   <si>
@@ -607,16 +614,10 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Observation.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -635,10 +636,6 @@
     <t>La position du corps au moment de l'observation, par exemple debout, assis. A n'utiliser que lorsque la position du corps n'est pas pré-coordonnée dans le code d'observation.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Observation.extension:supportingInfo</t>
   </si>
   <si>
@@ -665,7 +662,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -716,7 +713,14 @@
     <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -745,7 +749,7 @@
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
   </si>
   <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -773,6 +777,9 @@
   </si>
   <si>
     <t>required</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
@@ -822,6 +829,9 @@
 value:coding.system}</t>
   </si>
   <si>
+    <t>CE/CNE/CWE</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
   </si>
   <si>
@@ -949,6 +959,9 @@
   </si>
   <si>
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>
@@ -1205,7 +1218,7 @@
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/extension-observation-focuscode.html).</t>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](extension-observation-focuscode.html).</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -1263,14 +1276,14 @@
     <t>Often just a dateTime for Vital Signs.</t>
   </si>
   <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
   </si>
   <si>
-    <t xml:space="preserve">vs-1
-</t>
+    <t>ele-1
+vs-1</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1298,7 +1311,7 @@
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
   </si>
   <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
   </si>
   <si>
     <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
@@ -1348,7 +1361,7 @@
     <t>Vital Signs value are recorded using the Quantity data type. For supporting observations such as Cuff size could use other datatypes such as CodeableConcept.</t>
   </si>
   <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.</t>
   </si>
   <si>
     <t>9. SHALL contain exactly one [1..1] value with @xsi:type="PQ" (CONF:7305).</t>
@@ -1361,8 +1374,8 @@
     <t>closed</t>
   </si>
   <si>
-    <t>obs-7
-vs-2</t>
+    <t>ele-1
+obs-7vs-2</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
@@ -1501,6 +1514,9 @@
     <t>The identification of the system that provides the coded form of the unit.</t>
   </si>
   <si>
+    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
+  </si>
+  <si>
     <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
@@ -1510,8 +1526,8 @@
     <t>Quantity.system</t>
   </si>
   <si>
-    <t xml:space="preserve">qty-3
-</t>
+    <t>ele-1
+qty-3</t>
   </si>
   <si>
     <t>CO.codeSystem, PQ.translation.codeSystem</t>
@@ -1566,8 +1582,8 @@
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t>obs-6
-vs-2</t>
+    <t>ele-1
+obs-6vs-2</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -1625,6 +1641,9 @@
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
   </si>
   <si>
+    <t>Codes identifying interpretations of observations.</t>
+  </si>
+  <si>
     <t>http://www.interopsante.org/fhir/structuredefinition/observation/fr-obervation-interpretation</t>
   </si>
   <si>
@@ -1668,14 +1687,14 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>Non utilisé</t>
+    <t>Observed body part</t>
   </si>
   <si>
     <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
   </si>
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/extension-bodysite.html).</t>
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](extension-bodysite.html).</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1845,8 +1864,15 @@
     <t>The value of the low bound of the reference range.  The low bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the low bound is omitted,  it is assumed to be meaningless (e.g. reference range is &lt;=2.3).</t>
   </si>
   <si>
-    <t xml:space="preserve">obs-3
-</t>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+  </si>
+  <si>
+    <t>ele-1
+obs-3</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
   </si>
   <si>
     <t>OBX-7</t>
@@ -1903,6 +1929,12 @@
     <t>Observation.referenceRange.appliesTo</t>
   </si>
   <si>
+    <t>Reference range population</t>
+  </si>
+  <si>
+    <t>Codes to indicate the target population this reference range applies to.  For example, a reference range may be based on the normal population or a particular sex or race.  Multiple `appliesTo`  are interpreted as an "AND" of the target populations.  For example, to represent a target population of African American females, both a code of female and a code for African American would be used.</t>
+  </si>
+  <si>
     <t>This SHOULD be populated if there is more than one range.  If this element is not present then the normal population is assumed.</t>
   </si>
   <si>
@@ -1928,7 +1960,17 @@
     <t>The age at which this reference range is applicable. This is a neonatal age (e.g. number of weeks at term) if the meaning says so.</t>
   </si>
   <si>
+    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
+  </si>
+  <si>
     <t>Some analytes vary greatly over age.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
+  </si>
+  <si>
+    <t>NR and also possibly SN (but see also quantity)</t>
   </si>
   <si>
     <t>outboundRelationship[typeCode=PRCN].targetObservationCriterion[code="age"].value</t>
@@ -1953,7 +1995,13 @@
 </t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>Used when reporting vital signs panel components</t>
+  </si>
+  <si>
+    <t>Used when reporting vital signs panel components.</t>
+  </si>
+  <si>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1969,7 +2017,13 @@
 </t>
   </si>
   <si>
-    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.</t>
+    <t>Related measurements the observation is made from</t>
+  </si>
+  <si>
+    <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
+  </si>
+  <si>
+    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -1981,7 +2035,7 @@
     <t>Used when reporting systolic and diastolic blood pressure.</t>
   </si>
   <si>
-    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/observation.html#notes) below.</t>
+    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](observation.html#notes) below.</t>
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
@@ -2038,7 +2092,7 @@
     <t>Vital Sign Value recorded with UCUM.</t>
   </si>
   <si>
-    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
+    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.</t>
   </si>
   <si>
     <t>Common UCUM units for recording Vital Signs.</t>
@@ -2047,8 +2101,8 @@
     <t>http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
   </si>
   <si>
-    <t xml:space="preserve">vs-3
-</t>
+    <t>ele-1
+vs-3</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -2067,14 +2121,11 @@
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
   </si>
   <si>
-    <t>obs-6
-vs-3</t>
+    <t>ele-1
+obs-6vs-3</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
-  </si>
-  <si>
-    <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
@@ -2908,7 +2959,7 @@
         <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2923,7 +2974,7 @@
         <v>78</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AO4" t="s" s="2">
         <v>78</v>
@@ -2934,10 +2985,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2960,13 +3011,13 @@
         <v>78</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -3017,7 +3068,7 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
@@ -3041,7 +3092,7 @@
         <v>78</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO5" t="s" s="2">
         <v>78</v>
@@ -3052,14 +3103,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -3078,16 +3129,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3125,19 +3176,19 @@
         <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
@@ -3149,7 +3200,7 @@
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
@@ -3161,7 +3212,7 @@
         <v>78</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>78</v>
@@ -3172,10 +3223,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -3201,13 +3252,13 @@
         <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3257,7 +3308,7 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
@@ -3269,7 +3320,7 @@
         <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
@@ -3292,10 +3343,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3318,16 +3369,16 @@
         <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3377,7 +3428,7 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -3389,7 +3440,7 @@
         <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>78</v>
@@ -3412,10 +3463,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3438,16 +3489,16 @@
         <v>89</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3497,7 +3548,7 @@
         <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -3509,7 +3560,7 @@
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
@@ -3532,10 +3583,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3558,16 +3609,16 @@
         <v>89</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3605,17 +3656,17 @@
         <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -3627,7 +3678,7 @@
         <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -3650,10 +3701,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>7</v>
@@ -3678,16 +3729,16 @@
         <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3737,7 +3788,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -3749,7 +3800,7 @@
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
@@ -3772,10 +3823,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3798,16 +3849,16 @@
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3833,13 +3884,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -3857,7 +3908,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -3869,7 +3920,7 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
@@ -3892,10 +3943,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3918,16 +3969,16 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3953,13 +4004,13 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -3977,7 +4028,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -3989,7 +4040,7 @@
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -4012,10 +4063,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4038,16 +4089,16 @@
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -4097,7 +4148,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -4106,10 +4157,10 @@
         <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
@@ -4121,7 +4172,7 @@
         <v>78</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>78</v>
@@ -4132,10 +4183,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4158,16 +4209,16 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4193,13 +4244,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -4217,7 +4268,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -4226,10 +4277,10 @@
         <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
@@ -4241,7 +4292,7 @@
         <v>78</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>78</v>
@@ -4252,14 +4303,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4278,16 +4329,16 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4337,7 +4388,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -4346,10 +4397,10 @@
         <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
@@ -4361,7 +4412,7 @@
         <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>78</v>
@@ -4372,14 +4423,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4398,16 +4449,16 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4457,7 +4508,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -4481,7 +4532,7 @@
         <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>78</v>
@@ -4492,14 +4543,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4518,15 +4569,17 @@
         <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="N18" s="2"/>
+      <c r="N18" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -4563,14 +4616,16 @@
         <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AC18" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="AD18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>193</v>
@@ -4582,10 +4637,10 @@
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
@@ -4597,7 +4652,7 @@
         <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>78</v>
@@ -4611,7 +4666,7 @@
         <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>195</v>
@@ -4702,10 +4757,10 @@
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
@@ -4717,7 +4772,7 @@
         <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>78</v>
@@ -4728,16 +4783,16 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C20" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="B20" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="D20" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4756,15 +4811,17 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -4822,10 +4879,10 @@
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
@@ -4837,7 +4894,7 @@
         <v>78</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>78</v>
@@ -4848,14 +4905,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4874,19 +4931,19 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -4923,19 +4980,19 @@
         <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -4944,10 +5001,10 @@
         <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
@@ -4959,7 +5016,7 @@
         <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -4970,10 +5027,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4996,17 +5053,17 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -5055,7 +5112,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -5064,25 +5121,25 @@
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>78</v>
@@ -5090,14 +5147,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -5116,15 +5173,17 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>223</v>
       </c>
@@ -5175,7 +5234,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -5184,22 +5243,22 @@
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>122</v>
+        <v>224</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>78</v>
@@ -5210,14 +5269,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -5236,16 +5295,16 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5295,7 +5354,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -5304,22 +5363,22 @@
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>122</v>
+        <v>224</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>78</v>
@@ -5330,10 +5389,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5356,19 +5415,19 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -5393,11 +5452,13 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -5415,7 +5476,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>88</v>
@@ -5424,25 +5485,25 @@
         <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>78</v>
@@ -5450,10 +5511,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5476,19 +5537,19 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -5513,29 +5574,29 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -5544,10 +5605,10 @@
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
@@ -5556,13 +5617,13 @@
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>78</v>
@@ -5570,13 +5631,13 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>78</v>
@@ -5598,19 +5659,19 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -5635,13 +5696,13 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -5659,7 +5720,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -5668,10 +5729,10 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
@@ -5680,13 +5741,13 @@
         <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>78</v>
@@ -5694,10 +5755,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5720,13 +5781,13 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5777,7 +5838,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -5801,7 +5862,7 @@
         <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -5812,14 +5873,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5838,16 +5899,16 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5885,19 +5946,19 @@
         <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -5906,10 +5967,10 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
@@ -5921,7 +5982,7 @@
         <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>78</v>
@@ -5932,10 +5993,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5958,19 +6019,19 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -6019,7 +6080,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -6028,10 +6089,10 @@
         <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
@@ -6040,10 +6101,10 @@
         <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
@@ -6054,10 +6115,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6080,13 +6141,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -6137,7 +6198,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -6161,7 +6222,7 @@
         <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>78</v>
@@ -6172,14 +6233,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -6198,16 +6259,16 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6245,19 +6306,19 @@
         <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -6266,10 +6327,10 @@
         <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
@@ -6281,7 +6342,7 @@
         <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>78</v>
@@ -6292,10 +6353,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6318,26 +6379,26 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>78</v>
@@ -6379,7 +6440,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -6388,10 +6449,10 @@
         <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -6400,10 +6461,10 @@
         <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>78</v>
@@ -6414,10 +6475,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6440,16 +6501,16 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6499,7 +6560,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -6508,10 +6569,10 @@
         <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
@@ -6520,10 +6581,10 @@
         <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>78</v>
@@ -6534,10 +6595,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6560,24 +6621,26 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O35" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>78</v>
@@ -6619,7 +6682,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -6628,10 +6691,10 @@
         <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -6640,10 +6703,10 @@
         <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>78</v>
@@ -6654,10 +6717,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6680,17 +6743,19 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O36" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -6739,7 +6804,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -6748,10 +6813,10 @@
         <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
@@ -6760,10 +6825,10 @@
         <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>78</v>
@@ -6774,10 +6839,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6800,19 +6865,19 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6861,7 +6926,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -6870,10 +6935,10 @@
         <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
@@ -6882,10 +6947,10 @@
         <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>78</v>
@@ -6896,10 +6961,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6922,19 +6987,19 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6983,7 +7048,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6992,10 +7057,10 @@
         <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
@@ -7004,10 +7069,10 @@
         <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>78</v>
@@ -7018,14 +7083,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -7044,19 +7109,19 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -7081,13 +7146,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -7105,7 +7170,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>88</v>
@@ -7114,36 +7179,36 @@
         <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7166,13 +7231,13 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7223,7 +7288,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -7247,7 +7312,7 @@
         <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
@@ -7258,14 +7323,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7284,16 +7349,16 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7331,19 +7396,19 @@
         <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -7352,10 +7417,10 @@
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
@@ -7367,7 +7432,7 @@
         <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
@@ -7378,10 +7443,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7404,19 +7469,19 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -7453,17 +7518,17 @@
         <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -7472,10 +7537,10 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
@@ -7484,10 +7549,10 @@
         <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -7498,13 +7563,13 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>78</v>
@@ -7526,19 +7591,19 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -7587,7 +7652,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -7596,10 +7661,10 @@
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
@@ -7608,10 +7673,10 @@
         <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -7622,10 +7687,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7648,13 +7713,13 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7705,7 +7770,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -7729,7 +7794,7 @@
         <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -7740,14 +7805,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7766,16 +7831,16 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7813,19 +7878,19 @@
         <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -7834,10 +7899,10 @@
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
@@ -7849,7 +7914,7 @@
         <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -7860,10 +7925,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7886,26 +7951,26 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>78</v>
@@ -7947,7 +8012,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -7956,10 +8021,10 @@
         <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
@@ -7968,10 +8033,10 @@
         <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>78</v>
@@ -7982,10 +8047,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8008,16 +8073,16 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8067,7 +8132,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -8076,10 +8141,10 @@
         <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
@@ -8088,10 +8153,10 @@
         <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
@@ -8102,10 +8167,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8128,24 +8193,26 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O48" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>78</v>
@@ -8187,7 +8254,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -8196,10 +8263,10 @@
         <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
@@ -8208,10 +8275,10 @@
         <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>78</v>
@@ -8222,10 +8289,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8248,17 +8315,19 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O49" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -8307,7 +8376,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -8316,10 +8385,10 @@
         <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
@@ -8328,10 +8397,10 @@
         <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>78</v>
@@ -8342,10 +8411,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8368,19 +8437,19 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -8429,7 +8498,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -8438,10 +8507,10 @@
         <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
@@ -8450,10 +8519,10 @@
         <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>78</v>
@@ -8464,10 +8533,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8490,19 +8559,19 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -8551,7 +8620,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -8560,10 +8629,10 @@
         <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
@@ -8572,10 +8641,10 @@
         <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>78</v>
@@ -8586,10 +8655,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8612,19 +8681,19 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -8673,7 +8742,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -8682,25 +8751,25 @@
         <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>122</v>
+        <v>224</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>78</v>
@@ -8708,10 +8777,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8734,16 +8803,16 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8793,7 +8862,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -8802,10 +8871,10 @@
         <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>122</v>
+        <v>224</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
@@ -8814,13 +8883,13 @@
         <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>78</v>
@@ -8828,14 +8897,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8854,19 +8923,19 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -8915,7 +8984,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -8924,25 +8993,25 @@
         <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>122</v>
+        <v>224</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>78</v>
@@ -8950,14 +9019,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8976,19 +9045,19 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -9037,7 +9106,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -9046,25 +9115,25 @@
         <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>78</v>
@@ -9072,10 +9141,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9098,16 +9167,16 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9157,7 +9226,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -9166,10 +9235,10 @@
         <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
@@ -9178,13 +9247,13 @@
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>78</v>
@@ -9192,10 +9261,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9218,17 +9287,19 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O57" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -9277,7 +9348,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -9286,25 +9357,25 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>122</v>
+        <v>224</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>78</v>
@@ -9312,10 +9383,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9338,19 +9409,19 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -9387,17 +9458,17 @@
         <v>78</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -9406,39 +9477,39 @@
         <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>78</v>
@@ -9460,19 +9531,19 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -9482,84 +9553,84 @@
         <v>78</v>
       </c>
       <c r="S59" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="T59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>435</v>
-      </c>
       <c r="AO59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9582,13 +9653,13 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9639,7 +9710,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -9663,7 +9734,7 @@
         <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>78</v>
@@ -9674,14 +9745,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9700,16 +9771,16 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9747,19 +9818,19 @@
         <v>78</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -9768,10 +9839,10 @@
         <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
@@ -9783,7 +9854,7 @@
         <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>78</v>
@@ -9794,10 +9865,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9820,19 +9891,19 @@
         <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -9881,7 +9952,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -9890,10 +9961,10 @@
         <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
@@ -9902,10 +9973,10 @@
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>78</v>
@@ -9916,10 +9987,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9942,23 +10013,25 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O63" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q63" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>78</v>
@@ -9979,13 +10052,13 @@
         <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>78</v>
@@ -10003,7 +10076,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -10012,10 +10085,10 @@
         <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
@@ -10024,10 +10097,10 @@
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>78</v>
@@ -10038,10 +10111,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10064,17 +10137,19 @@
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O64" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -10123,7 +10198,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -10132,10 +10207,10 @@
         <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
@@ -10144,10 +10219,10 @@
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>78</v>
@@ -10158,10 +10233,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10184,24 +10259,26 @@
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="O65" t="s" s="2">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="S65" t="s" s="2">
         <v>78</v>
@@ -10243,7 +10320,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -10252,10 +10329,10 @@
         <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
@@ -10264,10 +10341,10 @@
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>78</v>
@@ -10278,10 +10355,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10304,19 +10381,19 @@
         <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -10341,13 +10418,13 @@
         <v>78</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>78</v>
@@ -10365,7 +10442,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -10374,10 +10451,10 @@
         <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
@@ -10386,10 +10463,10 @@
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>78</v>
@@ -10400,10 +10477,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10426,19 +10503,19 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>78</v>
@@ -10463,32 +10540,32 @@
         <v>78</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF67" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="Z67" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>491</v>
-      </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
       </c>
@@ -10496,10 +10573,10 @@
         <v>88</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
@@ -10508,10 +10585,10 @@
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>78</v>
@@ -10522,10 +10599,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10548,13 +10625,13 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10605,7 +10682,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -10629,7 +10706,7 @@
         <v>78</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>78</v>
@@ -10640,14 +10717,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10666,16 +10743,16 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10713,19 +10790,19 @@
         <v>78</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -10737,7 +10814,7 @@
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>78</v>
@@ -10749,7 +10826,7 @@
         <v>78</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>78</v>
@@ -10760,10 +10837,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10786,19 +10863,19 @@
         <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>78</v>
@@ -10847,7 +10924,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -10859,7 +10936,7 @@
         <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>78</v>
@@ -10868,10 +10945,10 @@
         <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>78</v>
@@ -10882,10 +10959,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10908,13 +10985,13 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10965,7 +11042,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -10989,7 +11066,7 @@
         <v>78</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>78</v>
@@ -11000,14 +11077,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -11026,16 +11103,16 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11073,19 +11150,19 @@
         <v>78</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -11097,7 +11174,7 @@
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
@@ -11109,7 +11186,7 @@
         <v>78</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>78</v>
@@ -11120,10 +11197,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11146,19 +11223,19 @@
         <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>78</v>
@@ -11207,7 +11284,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -11219,7 +11296,7 @@
         <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>78</v>
@@ -11228,10 +11305,10 @@
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>78</v>
@@ -11242,10 +11319,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11268,16 +11345,16 @@
         <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11327,7 +11404,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -11339,7 +11416,7 @@
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>78</v>
@@ -11348,10 +11425,10 @@
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>78</v>
@@ -11362,10 +11439,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11388,17 +11465,17 @@
         <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>78</v>
@@ -11447,7 +11524,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -11459,7 +11536,7 @@
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
@@ -11468,10 +11545,10 @@
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>78</v>
@@ -11482,10 +11559,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11508,17 +11585,17 @@
         <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
@@ -11567,7 +11644,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -11579,7 +11656,7 @@
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
@@ -11588,10 +11665,10 @@
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>78</v>
@@ -11602,10 +11679,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11628,19 +11705,19 @@
         <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>78</v>
@@ -11689,7 +11766,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
@@ -11701,7 +11778,7 @@
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
@@ -11710,10 +11787,10 @@
         <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>78</v>
@@ -11724,10 +11801,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11750,19 +11827,19 @@
         <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>78</v>
@@ -11811,7 +11888,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -11823,7 +11900,7 @@
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>78</v>
@@ -11832,10 +11909,10 @@
         <v>78</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>78</v>
@@ -11846,14 +11923,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11872,19 +11949,19 @@
         <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>78</v>
@@ -11909,11 +11986,13 @@
         <v>78</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="Y79" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>522</v>
+      </c>
       <c r="Z79" t="s" s="2">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>78</v>
@@ -11931,7 +12010,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
@@ -11940,36 +12019,36 @@
         <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11992,19 +12071,19 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>78</v>
@@ -12053,7 +12132,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -12062,10 +12141,10 @@
         <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
@@ -12074,10 +12153,10 @@
         <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>78</v>
@@ -12088,10 +12167,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12114,16 +12193,16 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -12149,13 +12228,13 @@
         <v>78</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>78</v>
@@ -12173,7 +12252,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
@@ -12182,36 +12261,36 @@
         <v>88</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12234,19 +12313,19 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>78</v>
@@ -12271,32 +12350,32 @@
         <v>78</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="Z82" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF82" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="AA82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>540</v>
-      </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
       </c>
@@ -12304,10 +12383,10 @@
         <v>88</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>78</v>
@@ -12316,10 +12395,10 @@
         <v>78</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>78</v>
@@ -12330,10 +12409,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12356,16 +12435,16 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12415,7 +12494,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
@@ -12424,36 +12503,36 @@
         <v>88</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>122</v>
+        <v>224</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12476,16 +12555,16 @@
         <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12535,7 +12614,7 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -12544,36 +12623,36 @@
         <v>88</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>122</v>
+        <v>224</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12596,19 +12675,19 @@
         <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>78</v>
@@ -12657,7 +12736,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
@@ -12666,10 +12745,10 @@
         <v>77</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>78</v>
@@ -12678,10 +12757,10 @@
         <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>78</v>
@@ -12692,10 +12771,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12718,13 +12797,13 @@
         <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12775,7 +12854,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>76</v>
@@ -12799,7 +12878,7 @@
         <v>78</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>78</v>
@@ -12810,14 +12889,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12836,16 +12915,16 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12883,19 +12962,19 @@
         <v>78</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
@@ -12904,10 +12983,10 @@
         <v>77</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>78</v>
@@ -12919,7 +12998,7 @@
         <v>78</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>78</v>
@@ -12930,14 +13009,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12956,19 +13035,19 @@
         <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>78</v>
@@ -13017,7 +13096,7 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
@@ -13026,10 +13105,10 @@
         <v>77</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>78</v>
@@ -13041,7 +13120,7 @@
         <v>78</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>78</v>
@@ -13052,10 +13131,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13078,15 +13157,17 @@
         <v>78</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>592</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>593</v>
+      </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>78</v>
@@ -13135,7 +13216,7 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
@@ -13144,10 +13225,10 @@
         <v>88</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>122</v>
+        <v>595</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>78</v>
@@ -13156,10 +13237,10 @@
         <v>78</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>78</v>
@@ -13170,10 +13251,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13196,15 +13277,17 @@
         <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>600</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>593</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>78</v>
@@ -13253,7 +13336,7 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
@@ -13262,10 +13345,10 @@
         <v>88</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>122</v>
+        <v>595</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>78</v>
@@ -13274,10 +13357,10 @@
         <v>78</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>78</v>
@@ -13288,10 +13371,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13314,19 +13397,19 @@
         <v>78</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>78</v>
@@ -13351,13 +13434,13 @@
         <v>78</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>78</v>
@@ -13375,7 +13458,7 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>76</v>
@@ -13384,22 +13467,22 @@
         <v>88</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>78</v>
@@ -13410,10 +13493,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13436,19 +13519,19 @@
         <v>78</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>531</v>
+        <v>612</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>531</v>
+        <v>613</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>78</v>
@@ -13473,13 +13556,13 @@
         <v>78</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>78</v>
@@ -13497,7 +13580,7 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>76</v>
@@ -13506,22 +13589,22 @@
         <v>77</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>78</v>
@@ -13532,10 +13615,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13558,17 +13641,19 @@
         <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>621</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>622</v>
+      </c>
       <c r="O93" t="s" s="2">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>78</v>
@@ -13617,7 +13702,7 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
@@ -13626,10 +13711,10 @@
         <v>88</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>122</v>
+        <v>624</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>78</v>
@@ -13638,10 +13723,10 @@
         <v>78</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>78</v>
+        <v>625</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>78</v>
@@ -13652,10 +13737,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13678,15 +13763,17 @@
         <v>78</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>629</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>78</v>
@@ -13735,7 +13822,7 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>76</v>
@@ -13744,10 +13831,10 @@
         <v>88</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>78</v>
@@ -13756,10 +13843,10 @@
         <v>78</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>78</v>
@@ -13770,10 +13857,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13796,16 +13883,16 @@
         <v>89</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>531</v>
+        <v>633</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>531</v>
+        <v>634</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13855,7 +13942,7 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>76</v>
@@ -13864,10 +13951,10 @@
         <v>77</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>122</v>
+        <v>224</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>78</v>
@@ -13876,10 +13963,10 @@
         <v>78</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>78</v>
@@ -13890,10 +13977,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13916,16 +14003,16 @@
         <v>89</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>531</v>
+        <v>640</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>531</v>
+        <v>641</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>625</v>
+        <v>642</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13975,7 +14062,7 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>76</v>
@@ -13984,10 +14071,10 @@
         <v>77</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>122</v>
+        <v>224</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>78</v>
@@ -13996,10 +14083,10 @@
         <v>78</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>626</v>
+        <v>643</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>78</v>
@@ -14010,10 +14097,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>627</v>
+        <v>644</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>627</v>
+        <v>644</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14036,19 +14123,19 @@
         <v>89</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>628</v>
+        <v>645</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>628</v>
+        <v>645</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>629</v>
+        <v>646</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>630</v>
+        <v>647</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>78</v>
@@ -14097,7 +14184,7 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>627</v>
+        <v>644</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>76</v>
@@ -14106,10 +14193,10 @@
         <v>77</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>631</v>
+        <v>648</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>78</v>
@@ -14118,10 +14205,10 @@
         <v>78</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>632</v>
+        <v>649</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>633</v>
+        <v>650</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>78</v>
@@ -14132,10 +14219,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>634</v>
+        <v>651</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>634</v>
+        <v>651</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14158,13 +14245,13 @@
         <v>78</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -14215,7 +14302,7 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>76</v>
@@ -14239,7 +14326,7 @@
         <v>78</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>78</v>
@@ -14250,14 +14337,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>635</v>
+        <v>652</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>635</v>
+        <v>652</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -14276,16 +14363,16 @@
         <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14323,19 +14410,19 @@
         <v>78</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AC99" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AD99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>76</v>
@@ -14344,10 +14431,10 @@
         <v>77</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>78</v>
@@ -14359,7 +14446,7 @@
         <v>78</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>78</v>
@@ -14370,14 +14457,14 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>636</v>
+        <v>653</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>636</v>
+        <v>653</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -14396,19 +14483,19 @@
         <v>89</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>78</v>
@@ -14457,7 +14544,7 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>76</v>
@@ -14466,10 +14553,10 @@
         <v>77</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>78</v>
@@ -14481,7 +14568,7 @@
         <v>78</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>78</v>
@@ -14492,10 +14579,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>637</v>
+        <v>654</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>637</v>
+        <v>654</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14518,19 +14605,19 @@
         <v>89</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>638</v>
+        <v>655</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>639</v>
+        <v>656</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>640</v>
+        <v>657</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>641</v>
+        <v>658</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>78</v>
@@ -14555,13 +14642,13 @@
         <v>78</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>78</v>
@@ -14579,7 +14666,7 @@
         <v>78</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>637</v>
+        <v>654</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>88</v>
@@ -14588,25 +14675,25 @@
         <v>88</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>642</v>
+        <v>659</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AP101" t="s" s="2">
         <v>78</v>
@@ -14614,10 +14701,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>643</v>
+        <v>660</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>643</v>
+        <v>660</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14640,19 +14727,19 @@
         <v>89</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>644</v>
+        <v>661</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>646</v>
+        <v>663</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>647</v>
+        <v>664</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>78</v>
@@ -14677,13 +14764,13 @@
         <v>78</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>648</v>
+        <v>665</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>78</v>
@@ -14701,7 +14788,7 @@
         <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>643</v>
+        <v>660</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>76</v>
@@ -14710,36 +14797,36 @@
         <v>88</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>651</v>
+        <v>668</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14762,19 +14849,19 @@
         <v>78</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>654</v>
+        <v>671</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>78</v>
@@ -14799,13 +14886,13 @@
         <v>78</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>78</v>
@@ -14823,7 +14910,7 @@
         <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>76</v>
@@ -14832,10 +14919,10 @@
         <v>88</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>656</v>
+        <v>673</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>78</v>
@@ -14844,10 +14931,10 @@
         <v>78</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>78</v>
@@ -14858,14 +14945,14 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>657</v>
+        <v>674</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>657</v>
+        <v>674</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14884,19 +14971,19 @@
         <v>78</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>78</v>
@@ -14921,13 +15008,13 @@
         <v>78</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>658</v>
+        <v>522</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>659</v>
+        <v>675</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>78</v>
@@ -14945,7 +15032,7 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>657</v>
+        <v>674</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>76</v>
@@ -14954,36 +15041,36 @@
         <v>77</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP104" t="s" s="2">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15009,16 +15096,16 @@
         <v>79</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>662</v>
+        <v>678</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>78</v>
@@ -15067,7 +15154,7 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>76</v>
@@ -15079,7 +15166,7 @@
         <v>78</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>78</v>
@@ -15088,10 +15175,10 @@
         <v>78</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>78</v>
